--- a/feedback_data.xlsx
+++ b/feedback_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PRIVATE\feedback-visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF9032-E7E6-4879-B4EF-102A905DF9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC349A9-B57D-41FE-BD30-370653D3DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -44,208 +44,259 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Sadek Mohammad Sadek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasneem Osama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essa karam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elyaro samir salah </t>
-  </si>
-  <si>
-    <t>Abdelrahman Ashraf Sayed</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Doha Tharwate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagham Sayed Abdelaziz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmed Osama Fawzi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esraa Mohammed Ali  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malak Ahmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariam Ahmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abd El-Rahman Ashraf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWAD ELKREEM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oday Mahmoud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed Yasser  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felopater Ahdy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariam Ahmed Mohamed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWAD ELKREEM MAHJOUB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed Azab Mohamedde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadek Mohammad </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-نوعية التاسكات و تكليفات انها حلوة للبدايات
- رأيك عن المدرب:
-كويس و التاسكات اللي اتكلفنا بيها حلوة اوي و متابعة كويسة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-أنه بياهل الشباب لسوق العمل و بيطور مهارات الشباب في المجالات اللي بتفيده 
- رأيك عن المدرب:
-حقيقي بنستفاد منه كتير و بيمشي معانا خطوة بخطوة و مش بيبخل بمعلومة </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-فيه وقت محدد لكل حاجه و حاسة إن ده بيعلمني الالتزام و الأشخاص الموجودين بجد friendly جداً 
- رأيك عن المدرب:
-بجد كويس جداً ربنا يوفقه </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-طريقة التنظيم للفديوهات الهي البدايه ازي 
-وجزء انوا اول اسبوع دا كان عبارة عن انوا التاسكات 
-بنعملها بناءا عن احتياجنا وبجانب دا كنا بندور بنفسنا ف دي كانت بالنسبالي نقطة قويه ومهمة جدا وساعدني جدا ازي احدد انا عايزة اي وابدا ازي وازي افكر صح ف طرقة جمع المعلومه ومصادرها. 
- رأيك عن المدرب:
-البشمهندس أكثر من رائع متابع معانا خطوة بخطوة وما بيقصرش خالص. 
-بيرد ع اي استفسار او سؤال بكل وضوح وبساطة و ف اسرع وقت . 
-ربنا يجازيه خير على تعبه ومجهوده معانا. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-نظام المعسكر كله عجبني 
- رأيك عن المدرب:
-هو متعاون جدا ومتابعنا دايما ولو في أي أخطاء عملناها بيقولنا اي الصح</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-الالتزام بصراحه لانى ابتديت أعانى من التسويف 
- رأيك عن المدرب:
-تمام حبيت جدا فكره الحزم فى موضوع التكليفات بحيث أنه الناس إلى حواليك يبقوا شبهك و productive  بيفرق كتير عموما </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-التدريب العملى و الاهتمام وتركيز مع المشاركين يعنى لو عملت حاجة غلط بيكتبوا و دة تدليل انهم مركزين و بيجتهدوا معانا و دة دليل بجدية المعسكر و دة اللى محتاجة لان الالتزام بيساعد على تطور و بيساعدونا لو فى ضغط علينا اننا ممكن نسلم تكليف مع تكليف تانى لذلك فى مرونة فى المعاملة مع الحزم و دة بجد من اكتر المعسكرات روعة و محدش يدخلها يهزر لا لازم جاى يتعلم فبجد فرصة روعة انا كنت عايزاها و اجتهدت علشانها جدا
- رأيك عن المدرب:
-بجد ما شاء الله علية بذل جهد فى متابعة كل واحد منا لدرجة لو اخطأت هيعرف ف ربنا يبارك</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-ان م.مصصطفى شخص محترم وعامل اللي عليه و ان الجدول الي بينزل مناسب 
- رأيك عن المدرب:
-لا شخص محترم جدا ومظبوط </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-المتابعة
- رأيك عن المدرب:
-شرحه اللهم بارك+بيتابع معنا أول بأول </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
- إصرار البشمهندس مصطفي علي الاستكمال بالرغم من تعبه الشديد  ولا يوجد دافع مادي
- رأيك عن المدرب:
-محترم جدا وصبور جدا</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-أكتر حاجة عجبتني في المعسكر هو التنظيم والتركيز العملي. المحاضرات كانت واضحة، والأسلوب كان عملي جداً، وكمان التفاعل مع المدرب والزملاء كان ممتاز حسيت فعلاً إني بتعلم خطوة بخطوة ومش بس بسماع نظري.
- رأيك عن المدرب:
-البشمهندس مصطفى كان ممتاز في المتابعة معانا. دايمًا متواجد للإجابة على الأسئلة ومساعدتنا في حل المشاكل وكان عنده صبر كبير في شرح المفاهيم المعقدة بطريقة بسيطة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-عجبني التنظيم و ان بصراحة المينتور او بشمهندس مصطفى مش بيتاخرو علينا فحاجة و اختيارهم لافضل playlist و الفيديوهات الي شرحتهالنا  م سلمى
- رأيك عن المدرب:
-بصراحة متاخرش علينا ف أي حاجة و لما وقفت معايا حاجة كلمني خاص و حلها </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-المتابعة والمحتوي الجميل السهل 
- رأيك عن المدرب:
-طبعا فوق الوصف علي اعلي مستوي وربنا يتمم شفاه علي خير </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-انه بيعلمنا طريقه تفكير كويسه جدا اذا كانت من ناحيه ماقالات نقرأها ونلخصها او من ناحيه فيديوهات ونشتغل بإدينا علي اي جهاز  
- رأيك عن المدرب:
-البشمهندس مصطفي والله راجل زي السكر وبيتابع بجد ومهتم بالمهتمين حرفيا وعن تجربه ومش بيتأخر علي حد  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-انه الشخص بيتعود علي الالتزام و النظام هوا الموضوع رخم شويه بس لا عجبني انه خلاني أطبق يوم علي التاسكات مره وحده 😂 و اني التزم بالقواعد 
- رأيك عن المدرب:
-البشمهندس كتر الف خيره معانا </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-التنظيم وسهولة الوصول إلى إجابات كنا سائلينها
- رأيك عن المدرب:
-انا عبدالرحمن اشرف سيد فرغلي كنت جروب اوميجا 
-كان المونيتور بتاعي الباشمهندس مصطفي نعيم 
-صراحة الباشمهندس كان على طول بيحاول يساعدنا ويسهل علينا ويسأل لو محدش عمل التاسكات وكان اي سؤال بيتساله بيدي اجابه منطقيه ومظبوطه والباشمهندس  لما كنا بندخل الميتينج كان بيتكلم معانا واي حد معاه سؤال كان بيجاوب عليه بكل بساطه وحاول يساعدنا احنا طلاب كليه الاقصر عن طريق أنه ف الاول كان شغال لغه بايثون بس لما عرف أننا شغالين ب #C ساعدنا وعمل جروب لينا يساعدنا فيه ف صراحه هو اكتر حد أتعاملت معاه كويس وخدوم وان شاءالله مش دي هتكون آخر مره نتعامل مع بعض</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-تاسكات متنوعة و مفيدة
- رأيك عن المدرب:
-بارك الله فية بيساعدنا و بيعطينا فرص و يجمع بين الانضباط و اللين</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-أكتر حاجة عجبتني كانت التنظيم العملي للمحتوى وطريقة الشرح السلسة اللي خلت المفاهيم المعقدة سهلة ومفهومة. كمان التفاعل بين الفريق والمتابعة المستمرة من الموجهين كانت محفزة جدًا، حسّيت إني جزء من مجتمع حقيقي بيشجع على التعلم والتطور.
- رأيك عن المدرب:
-بصراحة البشمهندس مصطفى كان من أكتر الناس اللي ساعدتنا نتقدم بخطوات ثابتة. متابعته كانت دقيقة، وردوده سريعة وواضحة. عنده أسلوب تشجيعي وفي نفس الوقت صارم في المواعيد والمهام، وده خلّى التجربة منظمة ومثمرة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-الاستفاده مع المتابعه الجيده من أ سلمي
- رأيك عن المدرب:
-فل الفل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-المتابعة و حل اي حاجة واقفة قدامك
- رأيك عن المدرب:
-تابع معانا هو و م سلمى 
-و مفيش حاجة هتقف قدامك من غير ما بيحلوها </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رأيك عن الورشة:
-نوعية التاسكات و التدريج الصعوبة
- رأيك عن المدرب:
-كويس و متابعة كويسة</t>
+    <t xml:space="preserve">Sandy Tharwat Rezk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hager Ahmed Mahmood Abdellatif </t>
+  </si>
+  <si>
+    <t>Khaled Waleed Al_Saour</t>
+  </si>
+  <si>
+    <t>Areej Walid Ramadan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eman Essam AboElwafa Khalil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdulrahman Ibrahim Rafaei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنة عبده محمد الدحدوح </t>
+  </si>
+  <si>
+    <t xml:space="preserve">امينه هشام حسن </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسلام محمد سلامه عطيه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حبيبة محمد كمال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essa karam Essa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alamir Saadallah Alamir Refaei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يوسف عبدالدايم فراج </t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Mohamed Hamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ندا احمد ابراهيم محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonita magdy yacoub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahya shereif reyad mohemd </t>
+  </si>
+  <si>
+    <t>Rana Mostafa Mahmoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beshoy nashwa kamel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sohaila Mahmoud Ali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touqa Waleed Gamal Saeed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نجلاء خالد يونس </t>
+  </si>
+  <si>
+    <t>إسراء شعبان عبدالتواب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrin Tamer Fathy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلاء إبراهيم سنوسي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صفاء محمد سيف النصر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سحر سمير مختار محمد </t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+الاهتمام بشرح التفاصيل اللى بنستفاد بيها
+رأيك في المدرب:
+جميل جدا جزاه الله كل خير</t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+الالتزام وان فيه متابعه معانا علشان الواحد ميتوهش
+رأيك في المدرب:
+كويس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+التركيز علي التنفيذ والحفاظ علي الجانب النظري شوية 
+رأيك في المدرب:
+المتابعة كويس جدا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+المتابعه و الشرح المبسط 
+رأيك في المدرب:
+بشمهندس مصطفي شخص محترم جدا وشرحه بسيط وجامد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+السهولة وكل سيشن خفيف وخطوه خطوه
+رأيك في المدرب:
+كويس جدا ، ودخل كذا مره LinkedIn بتاعي وشاف الحاجه ، بس كنت محتاجه اعرف التعليق علي الصفحه بتاعتي كمان </t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+التفاصيل انكم بتشرحوا كل التفاصيل وبتصلحوها
+رأيك في المدرب:
+شخص فعال وبيدي ونصائح مفيدة</t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+الاهتمام
+رأيك في المدرب:
+ممتاز جدا</t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+استعاده جيده وزياده فكر ووعي تقديم نصائح ممتازه 
+رأيك في المدرب:
+ما شاء الله عليك ربنا يكرمك ويوفقك ويزيدك من فضله ويزيدك كمان وكمان علشان مبتبخلش ولا بتقصر مع حد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+الترتيب والنظام
+رأيك في المدرب:
+نحسبه على خير ولا نزكي علي الله أحد </t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+بصراحة يا بشمهندس أكتر حاجة عجبتني إن حضرتك وضحت إزاي نقدر من خلال الموقع مش بس نعرض نفسنا بشكل احترافي، لكن كمان نلاقي فرص عمل كويسة ونفتح لنفسنا مجالات جديدة
+رأيك في المدرب:
+البشمهندس مصطفى بصراحة محترم جدًا، وتعب معانا في الشرح والمتابعة، وده خلانا نستفيد بشكل كبير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+بتركز علي كل تفصيله للبرنامج عشان نطلع افضل نتيجه 
+رأيك في المدرب:
+اللهم بارك رائع جدا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+كلها كانت حلوة بصراحه ومفيدة جدا 
+رأيك في المدرب:
+بصراحه جميل ربنا يباركله ف مجهودة معانا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+خلتني اعرف ازاي ابني البروفايل بتاعي من حيث الأساسيات 
+رأيك في المدرب:
+حقيقي شخص جميل جدا وبسيط في الشرح </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+التطبيق العملى + التاسكات
+( ان اسمع شرح او ريكورد و اطبق عملى على طول وراها حاجه جميله جدا ومفيده بالنسبالى والمتابعه من خلال التاسكات)
+رأيك في المدرب:
+شكرا بجد على مجهوده معانا من بدرى وانا عايزه ابنى صفحتى على لينكدان ومكنتش عايزه اشوف يوتيوب كده وخلاص كنت عايزه متابعه ف لما شوفت البشمهندس نزل البوست ساعتها قولت اشارك فيه عشان هيكون فى متابعه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+شجعنى اخد خطوة بس كسلى
+رأيك في المدرب:
+تحفه مشاء الله عليه ربنا يحفظه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+اني حقيقي بقيت فاهم يعني ايه لينكدان وقادر اعلي من مهراتي واتحمست عشان احطها فيه 
+رأيك في المدرب:
+شخص محترم جدا وربنا يكرمه حقيقي ويسهل عليه كل امور حياته ويساعده زي ما علمنا وساعدنا حقيقي </t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+الشرح كان سلس
+رأيك في المدرب:
+كويس و لكنه متابعش الاكونت بتاعي على لينكد إن بحيث يقول لو محتاج تعديل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+بقيت فاهمة أكتر ف الأبليكيشن عن الأول
+رأيك في المدرب:
+إنسان مجتهد الحقيقة، أتمنى له كل التوفيق </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+فكره تسليم تاسك طل يوم 
+رأيك في المدرب:
+ما شاء الله كان كويس </t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+كل حاجه منظمة وماشيين معانا خطوه بخطوه
+رأيك في المدرب:
+بشمهندس مجتهد وبيساعد الناس فربنا يجازيه كل خير</t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+طريقه بشمهندس مصطفي عموما ف توصيل المعلومات وانه بيفهمنا بسلاسه بجد. عاش اللهم. بارك وعموما اكتر حاجه عجبتني هيا الجزء الخاص بالفرق بين السوشيال ميديا ولينكد إن وانه ازاي نعمل بروفايل احترافي 
+رأيك في المدرب:
+بجد جزاه الله كل خير الحمدلله وبفضل ربنا بيقدر يوصل المعلومه بكل سهوله قادر يفهم دماغنا وتفكيرنا واسئليتنا ممكن تكون ازاي وبيجاوبنا بدون ما نسأل وده بيوصلنا المعلومه اسرع واسهل والطف كمان 
+حقيقي كل الاحترام والتقدير لبشمهندس مصطفي ولباقى التيم والليدرز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+ان في اهتمام فعلا والشرح كويس ومفيد جدا 
+رأيك في المدرب:
+لا تعامله كويس وبيهتم ودي حاجه كويسه جدا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+اني قدرت اشتغل عملي، واطور فعلا من البروفايل 
+رأيك في المدرب:
+بشهمندس شاطر ماشاءالله بيقدر يوصل المعلومه، جزاه الله خير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+الورشه ساعدتنى اظبط البروفايل بتاعى 
+رأيك في المدرب:
+كويس جدا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأيك في الورشة:
+كل حاجه كويسة اوي وممتازه والمحاضرات كانت مستفاضه 
+رأيك في المدرب:
+جميلة جدا وكان فعلا ممتاز والمتابعه رائعه  شكرا جزيلا له ومنتظرينه في سشينات اكثر ان شاءلله </t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+شرح الدكتور
+رأيك في المدرب:
+حلو جدا ، اه في متابعه</t>
+  </si>
+  <si>
+    <t>رأيك في الورشة:
+النظام والمتابعة
+رأيك في المدرب:
+تبارك الرحمن ...جزاه الله خيرا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,16 +330,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -327,15 +397,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF5B3F86"/>
       </bottom>
       <diagonal/>
     </border>
@@ -343,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,10 +434,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="103.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -661,503 +744,486 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
+      <c r="A2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
+      <c r="A6" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
+      <c r="A10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
+      <c r="A11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
+      <c r="A12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
+      <c r="A13" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
+      <c r="A14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
+      <c r="A15" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
+      <c r="A16" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
+      <c r="A20" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
+      <c r="A21" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
+      <c r="A22" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
-      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
-      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
-      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
-      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
-      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
-      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
